--- a/planning/assets/formatsXlsx/Pedidos.xlsx
+++ b/planning/assets/formatsXlsx/Pedidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>pedido</t>
   </si>
@@ -34,6 +34,9 @@
     <t>producto</t>
   </si>
   <si>
+    <t>email_vendedor</t>
+  </si>
+  <si>
     <t>cliente</t>
   </si>
   <si>
@@ -45,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +60,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -74,7 +83,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -106,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,22 +124,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -150,17 +168,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H5" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H5"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I5" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:I5"/>
+  <tableColumns count="9">
     <tableColumn name="pedido" id="1"/>
     <tableColumn name="fecha_pedido" id="2"/>
     <tableColumn name="fecha_minima" id="3"/>
     <tableColumn name="fecha_maxima" id="4"/>
     <tableColumn name="referencia_producto" id="5"/>
     <tableColumn name="producto" id="6"/>
-    <tableColumn name="cliente" id="7"/>
-    <tableColumn name="cantidad_original" id="8"/>
+    <tableColumn name="email_vendedor" id="7"/>
+    <tableColumn name="cliente" id="8"/>
+    <tableColumn name="cantidad_original" id="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -454,20 +473,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -495,6 +515,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
@@ -503,8 +526,9 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
@@ -513,8 +537,9 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
@@ -523,8 +548,9 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
@@ -533,228 +559,251 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="26.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="26.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="26.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="26.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="26.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="26.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="26.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="8">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/assets/formatsXlsx/Pedidos.xlsx
+++ b/planning/assets/formatsXlsx/Pedidos.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>pedido</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>fecha_pedido</t>
   </si>
@@ -69,6 +66,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -79,12 +82,6 @@
       <sz val="14"/>
       <color rgb="FF0000ff"/>
       <name val="Comic Sans MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -115,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,35 +120,29 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,18 +159,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I5" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:I5"/>
-  <tableColumns count="9">
-    <tableColumn name="pedido" id="1"/>
-    <tableColumn name="fecha_pedido" id="2"/>
-    <tableColumn name="fecha_minima" id="3"/>
-    <tableColumn name="fecha_maxima" id="4"/>
-    <tableColumn name="referencia_producto" id="5"/>
-    <tableColumn name="producto" id="6"/>
-    <tableColumn name="email_vendedor" id="7"/>
-    <tableColumn name="cliente" id="8"/>
-    <tableColumn name="cantidad_original" id="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H5" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn name="fecha_pedido" id="1"/>
+    <tableColumn name="fecha_minima" id="2"/>
+    <tableColumn name="fecha_maxima" id="3"/>
+    <tableColumn name="referencia_producto" id="4"/>
+    <tableColumn name="producto" id="5"/>
+    <tableColumn name="email_vendedor" id="6"/>
+    <tableColumn name="cliente" id="7"/>
+    <tableColumn name="cantidad_original" id="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -473,21 +463,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -515,9 +504,6 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2"/>
@@ -525,10 +511,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
@@ -536,10 +521,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2"/>
@@ -547,10 +531,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
@@ -558,241 +541,219 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="26.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="26.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="26.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="26.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="26.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="26.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="26.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="8">
       <c r="A27" s="9"/>
@@ -801,9 +762,8 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
